--- a/doc/04_DB定義書_小松来た.xlsx
+++ b/doc/04_DB定義書_小松来た.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E4AE12-E550-4A0F-87C3-071C50A09B83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BDBD00-1DB5-4550-B2F5-8D634A15C845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="660" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="660" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="104">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -417,10 +417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>friendsid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>logindatas</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -526,18 +522,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>charaid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>charafile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Image</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -617,6 +601,39 @@
     <rPh sb="16" eb="18">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chara_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chara_file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友達の名前</t>
+    <rPh sb="0" eb="2">
+      <t>トモダチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>friends_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>friends_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1197,16 +1214,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1214,16 +1231,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1234,13 +1251,13 @@
         <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1248,16 +1265,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1265,16 +1282,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1282,16 +1299,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1495,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9711C8F7-9B3A-4914-BC2D-902388E5F2EE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1546,7 +1563,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1558,7 +1575,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1664,13 +1681,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -1682,7 +1699,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>charaid String (4)</v>
+        <v>chara_id varcher (4)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2192,7 +2209,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -2535,7 +2552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83245011-FD2F-4CAF-865D-1A3B71B45B8D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3089,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C22532E-EC68-47DB-8E81-BC6258EEECC4}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3263,7 +3280,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -3273,7 +3290,9 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="e">
@@ -3285,18 +3304,28 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>friendsid varchar (20)</v>
+        <v>friends_id varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3314,7 +3343,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>friends_name varchar (10)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3608,7 +3637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70868DC-C5B2-4531-9FC5-557EC248E90D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
@@ -3659,7 +3688,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3671,7 +3700,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4120,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2323724-37AC-44F4-99F4-6F8AAF870495}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4171,7 +4200,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4183,7 +4212,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4289,17 +4318,15 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3">
-        <v>7</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4307,7 +4334,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>points int (7)</v>
+        <v xml:space="preserve">points int </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4644,8 +4671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14F0A76-C842-46FF-BF1F-AFDF7900D905}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4707,7 +4734,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4813,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>62</v>
@@ -5169,7 +5196,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5219,7 +5246,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5231,7 +5258,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5311,13 +5338,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
@@ -5327,7 +5354,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -5339,13 +5366,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5353,11 +5380,11 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>charaid String (4),</v>
+        <f t="shared" ref="L12:L29" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>chara_id VARCHAR (4),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5374,8 +5401,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">charafile Image </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">chara_file Image </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5392,7 +5419,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5410,7 +5437,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5428,7 +5455,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5446,7 +5473,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5464,7 +5491,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5482,7 +5509,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5500,7 +5527,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5518,7 +5545,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5536,7 +5563,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5554,7 +5581,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5572,7 +5599,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5590,7 +5617,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5608,7 +5635,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5632,7 +5659,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  ,</v>
       </c>
     </row>
@@ -5656,13 +5683,13 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>created at timestamp ,</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L29" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">updated at timestamp </v>
       </c>
     </row>
@@ -5682,8 +5709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10231FED-2E46-4B68-935E-03E0717EE713}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5733,7 +5760,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5745,7 +5772,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5825,13 +5852,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
@@ -5851,16 +5878,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E12" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5868,8 +5895,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>charaid String (4),</v>
+        <f t="shared" ref="L12:L29" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>chara_id Varchar (4),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5886,8 +5913,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>serif String (50)</v>
+        <f t="shared" si="0"/>
+        <v>serif Image (0)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5904,7 +5931,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5922,7 +5949,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5940,7 +5967,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5958,7 +5985,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5976,7 +6003,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5994,7 +6021,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6012,7 +6039,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6030,7 +6057,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6048,7 +6075,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6066,7 +6093,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6084,7 +6111,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6102,7 +6129,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6120,7 +6147,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6144,7 +6171,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  ,</v>
       </c>
     </row>
@@ -6168,14 +6195,14 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>created at timestamp ,</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="L29" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">updated at timestamp </v>
       </c>
     </row>
